--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siddharth\Desktop\Blog\Data\names\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC209B4-76FD-427C-B50E-45EA2C9ABF5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8DC851-C9BA-45D1-9CCC-3F59FC4F8A27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E5B2BD92-2011-4D45-9C43-4ABED11BA208}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{E5B2BD92-2011-4D45-9C43-4ABED11BA208}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,9 @@
     <sheet name="Most Popular Names - Boys" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'First Letter'!$H$35:$I$35</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Last Letter'!$E$35:$F$35</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Unisex Names'!$D$6:$G$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'First Letter'!$E$86:$K$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Last Letter'!$F$122:$L$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Unisex Names'!$D$6:$H$6</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="214">
   <si>
     <t>Sex</t>
   </si>
@@ -566,12 +566,6 @@
     <t>Leilani</t>
   </si>
   <si>
-    <t>Name_Count_M</t>
-  </si>
-  <si>
-    <t>Name_Count_F</t>
-  </si>
-  <si>
     <t>Parker</t>
   </si>
   <si>
@@ -594,6 +588,96 @@
   </si>
   <si>
     <t>Finley</t>
+  </si>
+  <si>
+    <t>Boy Count</t>
+  </si>
+  <si>
+    <t>Female Count</t>
+  </si>
+  <si>
+    <t>Brooklyn</t>
+  </si>
+  <si>
+    <t>Aaliyah</t>
+  </si>
+  <si>
+    <t>Savannah</t>
+  </si>
+  <si>
+    <t>Remi</t>
+  </si>
+  <si>
+    <t>Kehlani</t>
+  </si>
+  <si>
+    <t>Alani</t>
+  </si>
+  <si>
+    <t>Skylar</t>
+  </si>
+  <si>
+    <t>Valentina</t>
+  </si>
+  <si>
+    <t>Vivian</t>
+  </si>
+  <si>
+    <t>Valerie</t>
+  </si>
+  <si>
+    <t>Wesley</t>
+  </si>
+  <si>
+    <t>Waylon</t>
+  </si>
+  <si>
+    <t>Weston</t>
+  </si>
+  <si>
+    <t>Uriel</t>
+  </si>
+  <si>
+    <t>Uriah</t>
+  </si>
+  <si>
+    <t>Ulises</t>
+  </si>
+  <si>
+    <t>Ulysses</t>
+  </si>
+  <si>
+    <t>Umar</t>
+  </si>
+  <si>
+    <t>Elias</t>
+  </si>
+  <si>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t>Luca</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>Jace</t>
+  </si>
+  <si>
+    <t>Chase</t>
+  </si>
+  <si>
+    <t>Zachary</t>
+  </si>
+  <si>
+    <t>Bentley</t>
+  </si>
+  <si>
+    <t>Luka</t>
+  </si>
+  <si>
+    <t>Dakota</t>
   </si>
 </sst>
 </file>
@@ -710,10 +794,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4597,7 +4681,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4610,7 +4694,7 @@
         <f>C3/$C$1</f>
         <v>0.10336475774177915</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="17" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -4645,7 +4729,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -4656,7 +4740,7 @@
         <f t="shared" ref="D4:D28" si="0">C4/$C$1</f>
         <v>5.0040933578602724E-2</v>
       </c>
-      <c r="E4" s="16"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
@@ -4689,7 +4773,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -4700,7 +4784,7 @@
         <f t="shared" si="0"/>
         <v>7.1920619916632622E-2</v>
       </c>
-      <c r="E5" s="16"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
@@ -4733,7 +4817,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A6" s="16"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -4744,7 +4828,7 @@
         <f t="shared" si="0"/>
         <v>5.0423019380306057E-2</v>
       </c>
-      <c r="E6" s="16"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
@@ -4777,7 +4861,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
@@ -4788,7 +4872,7 @@
         <f t="shared" si="0"/>
         <v>6.2641560738456989E-2</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
@@ -4821,7 +4905,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -4832,7 +4916,7 @@
         <f t="shared" si="0"/>
         <v>1.1338337563429467E-2</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
@@ -4865,7 +4949,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A9" s="16"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
@@ -4876,7 +4960,7 @@
         <f t="shared" si="0"/>
         <v>3.1321073379812624E-2</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
@@ -4909,7 +4993,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
@@ -4920,7 +5004,7 @@
         <f t="shared" si="0"/>
         <v>2.8216333230388947E-2</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
@@ -4953,7 +5037,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
@@ -4964,7 +5048,7 @@
         <f t="shared" si="0"/>
         <v>1.8729236537482208E-2</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="1" t="s">
         <v>13</v>
       </c>
@@ -4997,7 +5081,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="16"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -5008,7 +5092,7 @@
         <f t="shared" si="0"/>
         <v>0.12069516175063276</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="1" t="s">
         <v>14</v>
       </c>
@@ -5041,7 +5125,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A13" s="16"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
@@ -5052,7 +5136,7 @@
         <f t="shared" si="0"/>
         <v>5.4988710302193537E-2</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="1" t="s">
         <v>15</v>
       </c>
@@ -5085,7 +5169,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A14" s="16"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
@@ -5096,7 +5180,7 @@
         <f t="shared" si="0"/>
         <v>7.4599908697901979E-2</v>
       </c>
-      <c r="E14" s="16"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="1" t="s">
         <v>16</v>
       </c>
@@ -5129,7 +5213,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A15" s="16"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -5140,7 +5224,7 @@
         <f t="shared" si="0"/>
         <v>7.4047290736235977E-2</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="1" t="s">
         <v>4</v>
       </c>
@@ -5173,7 +5257,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A16" s="16"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
@@ -5184,7 +5268,7 @@
         <f t="shared" si="0"/>
         <v>3.2536481282776898E-2</v>
       </c>
-      <c r="E16" s="16"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="1" t="s">
         <v>17</v>
       </c>
@@ -5217,7 +5301,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A17" s="16"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
@@ -5228,7 +5312,7 @@
         <f t="shared" si="0"/>
         <v>2.1689229458346494E-2</v>
       </c>
-      <c r="E17" s="16"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="1" t="s">
         <v>18</v>
       </c>
@@ -5261,7 +5345,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A18" s="16"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
@@ -5272,7 +5356,7 @@
         <f t="shared" si="0"/>
         <v>1.4146551001715284E-2</v>
       </c>
-      <c r="E18" s="16"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="1" t="s">
         <v>19</v>
       </c>
@@ -5305,7 +5389,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A19" s="16"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
@@ -5316,7 +5400,7 @@
         <f t="shared" si="0"/>
         <v>1.7902946690240345E-3</v>
       </c>
-      <c r="E19" s="16"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="1" t="s">
         <v>20</v>
       </c>
@@ -5349,7 +5433,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A20" s="16"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
@@ -5360,7 +5444,7 @@
         <f t="shared" si="0"/>
         <v>4.6282193805404638E-2</v>
       </c>
-      <c r="E20" s="16"/>
+      <c r="E20" s="17"/>
       <c r="F20" s="1" t="s">
         <v>21</v>
       </c>
@@ -5393,7 +5477,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A21" s="16"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
@@ -5404,7 +5488,7 @@
         <f t="shared" si="0"/>
         <v>3.9797283557476665E-2</v>
       </c>
-      <c r="E21" s="16"/>
+      <c r="E21" s="17"/>
       <c r="F21" s="1" t="s">
         <v>22</v>
       </c>
@@ -5437,7 +5521,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A22" s="16"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
@@ -5448,7 +5532,7 @@
         <f t="shared" si="0"/>
         <v>3.3369217362869581E-2</v>
       </c>
-      <c r="E22" s="16"/>
+      <c r="E22" s="17"/>
       <c r="F22" s="1" t="s">
         <v>23</v>
       </c>
@@ -5481,7 +5565,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A23" s="16"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
@@ -5492,7 +5576,7 @@
         <f t="shared" si="0"/>
         <v>1.425203481200148E-3</v>
       </c>
-      <c r="E23" s="16"/>
+      <c r="E23" s="17"/>
       <c r="F23" s="1" t="s">
         <v>24</v>
       </c>
@@ -5525,7 +5609,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A24" s="16"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
@@ -5536,7 +5620,7 @@
         <f t="shared" si="0"/>
         <v>6.2710125215143025E-3</v>
       </c>
-      <c r="E24" s="16"/>
+      <c r="E24" s="17"/>
       <c r="F24" s="1" t="s">
         <v>25</v>
       </c>
@@ -5569,7 +5653,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A25" s="16"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
@@ -5580,7 +5664,7 @@
         <f t="shared" si="0"/>
         <v>2.6594226636654568E-2</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="1" t="s">
         <v>26</v>
       </c>
@@ -5613,7 +5697,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A26" s="16"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
@@ -5624,7 +5708,7 @@
         <f t="shared" si="0"/>
         <v>4.2439653005145852E-3</v>
       </c>
-      <c r="E26" s="16"/>
+      <c r="E26" s="17"/>
       <c r="F26" s="1" t="s">
         <v>27</v>
       </c>
@@ -5657,7 +5741,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A27" s="16"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
@@ -5668,7 +5752,7 @@
         <f t="shared" si="0"/>
         <v>4.6524220547894627E-3</v>
       </c>
-      <c r="E27" s="16"/>
+      <c r="E27" s="17"/>
       <c r="F27" s="1" t="s">
         <v>28</v>
       </c>
@@ -5701,7 +5785,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A28" s="16"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
@@ -5712,7 +5796,7 @@
         <f t="shared" si="0"/>
         <v>1.4874975313858287E-2</v>
       </c>
-      <c r="E28" s="16"/>
+      <c r="E28" s="17"/>
       <c r="F28" s="1" t="s">
         <v>29</v>
       </c>
@@ -5787,7 +5871,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -5800,7 +5884,7 @@
         <f>C32/$C$1</f>
         <v>1.9610026353371935E-2</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="17" t="s">
         <v>10</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -5829,7 +5913,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A33" s="16"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
@@ -5840,7 +5924,7 @@
         <f t="shared" ref="D33:D57" si="8">C33/$C$1</f>
         <v>1.0517321906701915E-2</v>
       </c>
-      <c r="E33" s="16"/>
+      <c r="E33" s="17"/>
       <c r="F33" s="1" t="s">
         <v>32</v>
       </c>
@@ -5867,7 +5951,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A34" s="16"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
@@ -5878,7 +5962,7 @@
         <f t="shared" si="8"/>
         <v>9.6933761441330788E-3</v>
       </c>
-      <c r="E34" s="16"/>
+      <c r="E34" s="17"/>
       <c r="F34" s="1" t="s">
         <v>33</v>
       </c>
@@ -5905,7 +5989,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A35" s="16"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
@@ -5916,7 +6000,7 @@
         <f t="shared" si="8"/>
         <v>2.2615142904191986E-2</v>
       </c>
-      <c r="E35" s="16"/>
+      <c r="E35" s="17"/>
       <c r="F35" s="1" t="s">
         <v>34</v>
       </c>
@@ -5943,7 +6027,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A36" s="16"/>
+      <c r="A36" s="17"/>
       <c r="B36" s="1" t="s">
         <v>35</v>
       </c>
@@ -5954,7 +6038,7 @@
         <f t="shared" si="8"/>
         <v>6.771826211906426E-2</v>
       </c>
-      <c r="E36" s="16"/>
+      <c r="E36" s="17"/>
       <c r="F36" s="1" t="s">
         <v>35</v>
       </c>
@@ -5981,7 +6065,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A37" s="16"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
@@ -5992,7 +6076,7 @@
         <f t="shared" si="8"/>
         <v>1.5687786674230247E-3</v>
       </c>
-      <c r="E37" s="16"/>
+      <c r="E37" s="17"/>
       <c r="F37" s="1" t="s">
         <v>36</v>
       </c>
@@ -6019,7 +6103,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A38" s="16"/>
+      <c r="A38" s="17"/>
       <c r="B38" s="1" t="s">
         <v>37</v>
       </c>
@@ -6030,7 +6114,7 @@
         <f t="shared" si="8"/>
         <v>2.6669823367359677E-3</v>
       </c>
-      <c r="E38" s="16"/>
+      <c r="E38" s="17"/>
       <c r="F38" s="1" t="s">
         <v>37</v>
       </c>
@@ -6057,7 +6141,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A39" s="16"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="1" t="s">
         <v>38</v>
       </c>
@@ -6068,7 +6152,7 @@
         <f t="shared" si="8"/>
         <v>5.4507586923054838E-2</v>
       </c>
-      <c r="E39" s="16"/>
+      <c r="E39" s="17"/>
       <c r="F39" s="1" t="s">
         <v>38</v>
       </c>
@@ -6095,7 +6179,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A40" s="16"/>
+      <c r="A40" s="17"/>
       <c r="B40" s="1" t="s">
         <v>39</v>
       </c>
@@ -6106,7 +6190,7 @@
         <f t="shared" si="8"/>
         <v>3.2438029726509783E-2</v>
       </c>
-      <c r="E40" s="16"/>
+      <c r="E40" s="17"/>
       <c r="F40" s="1" t="s">
         <v>39</v>
       </c>
@@ -6133,7 +6217,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A41" s="16"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="1" t="s">
         <v>40</v>
       </c>
@@ -6144,7 +6228,7 @@
         <f t="shared" si="8"/>
         <v>8.4914467280387102E-4</v>
       </c>
-      <c r="E41" s="16"/>
+      <c r="E41" s="17"/>
       <c r="F41" s="1" t="s">
         <v>40</v>
       </c>
@@ -6171,7 +6255,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A42" s="16"/>
+      <c r="A42" s="17"/>
       <c r="B42" s="1" t="s">
         <v>41</v>
       </c>
@@ -6182,7 +6266,7 @@
         <f t="shared" si="8"/>
         <v>2.0407601163369222E-2</v>
       </c>
-      <c r="E42" s="16"/>
+      <c r="E42" s="17"/>
       <c r="F42" s="1" t="s">
         <v>41</v>
       </c>
@@ -6209,7 +6293,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A43" s="16"/>
+      <c r="A43" s="17"/>
       <c r="B43" s="1" t="s">
         <v>42</v>
       </c>
@@ -6220,7 +6304,7 @@
         <f t="shared" si="8"/>
         <v>6.5353666705148722E-2</v>
       </c>
-      <c r="E43" s="16"/>
+      <c r="E43" s="17"/>
       <c r="F43" s="1" t="s">
         <v>42</v>
       </c>
@@ -6247,7 +6331,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A44" s="16"/>
+      <c r="A44" s="17"/>
       <c r="B44" s="1" t="s">
         <v>43</v>
       </c>
@@ -6258,7 +6342,7 @@
         <f t="shared" si="8"/>
         <v>3.2865239158168871E-2</v>
       </c>
-      <c r="E44" s="16"/>
+      <c r="E44" s="17"/>
       <c r="F44" s="1" t="s">
         <v>43</v>
       </c>
@@ -6285,7 +6369,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A45" s="16"/>
+      <c r="A45" s="17"/>
       <c r="B45" s="1" t="s">
         <v>44</v>
       </c>
@@ -6296,7 +6380,7 @@
         <f t="shared" si="8"/>
         <v>0.31484690489989881</v>
       </c>
-      <c r="E45" s="16"/>
+      <c r="E45" s="17"/>
       <c r="F45" s="1" t="s">
         <v>44</v>
       </c>
@@ -6323,7 +6407,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A46" s="16"/>
+      <c r="A46" s="17"/>
       <c r="B46" s="1" t="s">
         <v>45</v>
       </c>
@@ -6334,7 +6418,7 @@
         <f t="shared" si="8"/>
         <v>6.0136320244159859E-2</v>
       </c>
-      <c r="E46" s="16"/>
+      <c r="E46" s="17"/>
       <c r="F46" s="1" t="s">
         <v>45</v>
       </c>
@@ -6361,7 +6445,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A47" s="16"/>
+      <c r="A47" s="17"/>
       <c r="B47" s="1" t="s">
         <v>46</v>
       </c>
@@ -6372,7 +6456,7 @@
         <f t="shared" si="8"/>
         <v>1.5119346141021306E-3</v>
       </c>
-      <c r="E47" s="16"/>
+      <c r="E47" s="17"/>
       <c r="F47" s="1" t="s">
         <v>46</v>
       </c>
@@ -6399,7 +6483,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A48" s="16"/>
+      <c r="A48" s="17"/>
       <c r="B48" s="1" t="s">
         <v>47</v>
       </c>
@@ -6410,7 +6494,7 @@
         <f t="shared" si="8"/>
         <v>1.9221494318817786E-4</v>
       </c>
-      <c r="E48" s="16"/>
+      <c r="E48" s="17"/>
       <c r="F48" s="1" t="s">
         <v>47</v>
       </c>
@@ -6437,7 +6521,7 @@
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A49" s="16"/>
+      <c r="A49" s="17"/>
       <c r="B49" s="1" t="s">
         <v>48</v>
       </c>
@@ -6448,7 +6532,7 @@
         <f t="shared" si="8"/>
         <v>9.5192692550440314E-2</v>
       </c>
-      <c r="E49" s="16"/>
+      <c r="E49" s="17"/>
       <c r="F49" s="1" t="s">
         <v>48</v>
       </c>
@@ -6475,7 +6559,7 @@
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A50" s="16"/>
+      <c r="A50" s="17"/>
       <c r="B50" s="1" t="s">
         <v>49</v>
       </c>
@@ -6486,7 +6570,7 @@
         <f t="shared" si="8"/>
         <v>7.796425622486336E-2</v>
       </c>
-      <c r="E50" s="16"/>
+      <c r="E50" s="17"/>
       <c r="F50" s="1" t="s">
         <v>49</v>
       </c>
@@ -6513,7 +6597,7 @@
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A51" s="16"/>
+      <c r="A51" s="17"/>
       <c r="B51" s="1" t="s">
         <v>50</v>
       </c>
@@ -6524,7 +6608,7 @@
         <f t="shared" si="8"/>
         <v>3.2832421972746502E-2</v>
       </c>
-      <c r="E51" s="16"/>
+      <c r="E51" s="17"/>
       <c r="F51" s="1" t="s">
         <v>50</v>
       </c>
@@ -6551,7 +6635,7 @@
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A52" s="16"/>
+      <c r="A52" s="17"/>
       <c r="B52" s="1" t="s">
         <v>51</v>
       </c>
@@ -6562,7 +6646,7 @@
         <f t="shared" si="8"/>
         <v>3.3748959079899885E-3</v>
       </c>
-      <c r="E52" s="16"/>
+      <c r="E52" s="17"/>
       <c r="F52" s="1" t="s">
         <v>51</v>
       </c>
@@ -6589,7 +6673,7 @@
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A53" s="16"/>
+      <c r="A53" s="17"/>
       <c r="B53" s="1" t="s">
         <v>52</v>
       </c>
@@ -6600,7 +6684,7 @@
         <f t="shared" si="8"/>
         <v>1.6783646258870164E-3</v>
       </c>
-      <c r="E53" s="16"/>
+      <c r="E53" s="17"/>
       <c r="F53" s="1" t="s">
         <v>52</v>
       </c>
@@ -6627,7 +6711,7 @@
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A54" s="16"/>
+      <c r="A54" s="17"/>
       <c r="B54" s="1" t="s">
         <v>53</v>
       </c>
@@ -6638,7 +6722,7 @@
         <f t="shared" si="8"/>
         <v>9.9957630669535048E-3</v>
       </c>
-      <c r="E54" s="16"/>
+      <c r="E54" s="17"/>
       <c r="F54" s="1" t="s">
         <v>53</v>
       </c>
@@ -6665,7 +6749,7 @@
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A55" s="16"/>
+      <c r="A55" s="17"/>
       <c r="B55" s="1" t="s">
         <v>54</v>
       </c>
@@ -6676,7 +6760,7 @@
         <f t="shared" si="8"/>
         <v>1.1668853502326212E-2</v>
       </c>
-      <c r="E55" s="16"/>
+      <c r="E55" s="17"/>
       <c r="F55" s="1" t="s">
         <v>54</v>
       </c>
@@ -6703,7 +6787,7 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A56" s="16"/>
+      <c r="A56" s="17"/>
       <c r="B56" s="1" t="s">
         <v>55</v>
       </c>
@@ -6714,7 +6798,7 @@
         <f t="shared" si="8"/>
         <v>4.7782994017309892E-2</v>
       </c>
-      <c r="E56" s="16"/>
+      <c r="E56" s="17"/>
       <c r="F56" s="1" t="s">
         <v>55</v>
       </c>
@@ -6741,7 +6825,7 @@
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A57" s="16"/>
+      <c r="A57" s="17"/>
       <c r="B57" s="1" t="s">
         <v>56</v>
       </c>
@@ -6752,7 +6836,7 @@
         <f t="shared" si="8"/>
         <v>2.0112246494567877E-3</v>
       </c>
-      <c r="E57" s="16"/>
+      <c r="E57" s="17"/>
       <c r="F57" s="1" t="s">
         <v>56</v>
       </c>
@@ -6805,7 +6889,7 @@
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B60" s="1">
@@ -6818,7 +6902,7 @@
         <f t="shared" ref="D60:D72" si="12">C60/$C$1</f>
         <v>1.0061983458966505E-3</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="17" t="s">
         <v>10</v>
       </c>
       <c r="F60" s="1">
@@ -6853,7 +6937,7 @@
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A61" s="16"/>
+      <c r="A61" s="17"/>
       <c r="B61" s="1">
         <v>3</v>
       </c>
@@ -6864,7 +6948,7 @@
         <f t="shared" si="12"/>
         <v>2.675772654259817E-2</v>
       </c>
-      <c r="E61" s="16"/>
+      <c r="E61" s="17"/>
       <c r="F61" s="1">
         <v>3</v>
       </c>
@@ -6897,7 +6981,7 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A62" s="16"/>
+      <c r="A62" s="17"/>
       <c r="B62" s="1">
         <v>4</v>
       </c>
@@ -6908,7 +6992,7 @@
         <f t="shared" si="12"/>
         <v>0.16180161659799475</v>
       </c>
-      <c r="E62" s="16"/>
+      <c r="E62" s="17"/>
       <c r="F62" s="1">
         <v>4</v>
       </c>
@@ -6941,7 +7025,7 @@
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A63" s="16"/>
+      <c r="A63" s="17"/>
       <c r="B63" s="1">
         <v>5</v>
       </c>
@@ -6952,7 +7036,7 @@
         <f t="shared" si="12"/>
         <v>0.26087728540930355</v>
       </c>
-      <c r="E63" s="16"/>
+      <c r="E63" s="17"/>
       <c r="F63" s="1">
         <v>5</v>
       </c>
@@ -6985,7 +7069,7 @@
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A64" s="16"/>
+      <c r="A64" s="17"/>
       <c r="B64" s="1">
         <v>6</v>
       </c>
@@ -6996,7 +7080,7 @@
         <f t="shared" si="12"/>
         <v>0.29731373756682838</v>
       </c>
-      <c r="E64" s="16"/>
+      <c r="E64" s="17"/>
       <c r="F64" s="1">
         <v>6</v>
       </c>
@@ -7029,7 +7113,7 @@
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A65" s="16"/>
+      <c r="A65" s="17"/>
       <c r="B65" s="1">
         <v>7</v>
       </c>
@@ -7040,7 +7124,7 @@
         <f t="shared" si="12"/>
         <v>0.1576004308427629</v>
       </c>
-      <c r="E65" s="16"/>
+      <c r="E65" s="17"/>
       <c r="F65" s="1">
         <v>7</v>
       </c>
@@ -7073,7 +7157,7 @@
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A66" s="16"/>
+      <c r="A66" s="17"/>
       <c r="B66" s="1">
         <v>8</v>
       </c>
@@ -7084,7 +7168,7 @@
         <f t="shared" si="12"/>
         <v>6.183636765327237E-2</v>
       </c>
-      <c r="E66" s="16"/>
+      <c r="E66" s="17"/>
       <c r="F66" s="1">
         <v>8</v>
       </c>
@@ -7117,7 +7201,7 @@
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A67" s="16"/>
+      <c r="A67" s="17"/>
       <c r="B67" s="1">
         <v>9</v>
       </c>
@@ -7128,7 +7212,7 @@
         <f t="shared" si="12"/>
         <v>2.5540560576129131E-2</v>
       </c>
-      <c r="E67" s="16"/>
+      <c r="E67" s="17"/>
       <c r="F67" s="1">
         <v>9</v>
       </c>
@@ -7161,7 +7245,7 @@
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A68" s="16"/>
+      <c r="A68" s="17"/>
       <c r="B68" s="1">
         <v>10</v>
       </c>
@@ -7172,7 +7256,7 @@
         <f t="shared" si="12"/>
         <v>2.1799987459147001E-3</v>
       </c>
-      <c r="E68" s="16"/>
+      <c r="E68" s="17"/>
       <c r="F68" s="1">
         <v>10</v>
       </c>
@@ -7205,7 +7289,7 @@
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A69" s="16"/>
+      <c r="A69" s="17"/>
       <c r="B69" s="1">
         <v>11</v>
       </c>
@@ -7216,7 +7300,7 @@
         <f t="shared" si="12"/>
         <v>4.8921047126064291E-3</v>
       </c>
-      <c r="E69" s="16"/>
+      <c r="E69" s="17"/>
       <c r="F69" s="1">
         <v>11</v>
       </c>
@@ -7249,7 +7333,7 @@
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A70" s="16"/>
+      <c r="A70" s="17"/>
       <c r="B70" s="1">
         <v>12</v>
       </c>
@@ -7260,7 +7344,7 @@
         <f t="shared" si="12"/>
         <v>1.1896229715609787E-4</v>
       </c>
-      <c r="E70" s="16"/>
+      <c r="E70" s="17"/>
       <c r="F70" s="1">
         <v>12</v>
       </c>
@@ -7293,7 +7377,7 @@
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A71" s="16"/>
+      <c r="A71" s="17"/>
       <c r="B71" s="1">
         <v>13</v>
       </c>
@@ -7304,7 +7388,7 @@
         <f t="shared" si="12"/>
         <v>6.6220392013000294E-5</v>
       </c>
-      <c r="E71" s="16"/>
+      <c r="E71" s="17"/>
       <c r="F71" s="1">
         <v>13</v>
       </c>
@@ -7337,7 +7421,7 @@
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A72" s="16"/>
+      <c r="A72" s="17"/>
       <c r="B72" s="1">
         <v>14</v>
       </c>
@@ -7348,7 +7432,7 @@
         <f t="shared" si="12"/>
         <v>8.7903175238495957E-6</v>
       </c>
-      <c r="E72" s="16"/>
+      <c r="E72" s="17"/>
       <c r="F72" s="1">
         <v>14</v>
       </c>
@@ -7576,149 +7660,184 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16770F31-9934-4104-9751-BEFB8FC5EAD5}">
-  <dimension ref="D6:G14"/>
+  <dimension ref="D6:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="6" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D6" t="s">
         <v>58</v>
       </c>
       <c r="E6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D7" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E7" s="16">
+        <v>3797</v>
+      </c>
+      <c r="F7" s="16">
+        <v>2131</v>
+      </c>
+      <c r="G7" s="16">
+        <f t="shared" ref="G7:G14" si="0">SUM(E7:F7)</f>
+        <v>5928</v>
+      </c>
+      <c r="H7" s="16">
+        <f t="shared" ref="H7:H14" si="1">F7/E7</f>
+        <v>0.56123255201474853</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D8" s="16" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="7" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D7" s="17" t="s">
+      <c r="E8" s="16">
+        <v>2771</v>
+      </c>
+      <c r="F8" s="16">
+        <v>1540</v>
+      </c>
+      <c r="G8" s="16">
+        <f t="shared" si="0"/>
+        <v>4311</v>
+      </c>
+      <c r="H8" s="16">
+        <f t="shared" si="1"/>
+        <v>0.55575604474918805</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D9" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1853</v>
+      </c>
+      <c r="F9" s="16">
+        <v>2219</v>
+      </c>
+      <c r="G9" s="16">
+        <f t="shared" si="0"/>
+        <v>4072</v>
+      </c>
+      <c r="H9" s="16">
+        <f t="shared" si="1"/>
+        <v>1.197517539125742</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D10" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="16">
+        <v>2146</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1078</v>
+      </c>
+      <c r="G10" s="16">
+        <f t="shared" si="0"/>
+        <v>3224</v>
+      </c>
+      <c r="H10" s="16">
+        <f t="shared" si="1"/>
+        <v>0.50232991612301958</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D11" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="E7" s="17">
-        <v>2146</v>
-      </c>
-      <c r="F7" s="17">
-        <v>1078</v>
-      </c>
-      <c r="G7" s="17">
-        <f>F7/E7</f>
-        <v>0.50232991612301958</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D8" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="E8" s="17">
-        <v>2771</v>
-      </c>
-      <c r="F8" s="17">
-        <v>1540</v>
-      </c>
-      <c r="G8" s="17">
-        <f>F8/E8</f>
-        <v>0.55575604474918805</v>
-      </c>
-    </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D9" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="E9" s="17">
-        <v>3797</v>
-      </c>
-      <c r="F9" s="17">
-        <v>2131</v>
-      </c>
-      <c r="G9" s="17">
-        <f>F9/E9</f>
-        <v>0.56123255201474853</v>
-      </c>
-    </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D10" s="17" t="s">
+      <c r="E11" s="16">
+        <v>1797</v>
+      </c>
+      <c r="F11" s="16">
+        <v>1316</v>
+      </c>
+      <c r="G11" s="16">
+        <f t="shared" si="0"/>
+        <v>3113</v>
+      </c>
+      <c r="H11" s="16">
+        <f t="shared" si="1"/>
+        <v>0.73233166388425153</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D12" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="E10" s="17">
-        <v>1797</v>
-      </c>
-      <c r="F10" s="17">
-        <v>1316</v>
-      </c>
-      <c r="G10" s="17">
-        <f>F10/E10</f>
-        <v>0.73233166388425153</v>
-      </c>
-    </row>
-    <row r="11" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D11" s="17" t="s">
+      <c r="E12" s="16">
+        <v>1268</v>
+      </c>
+      <c r="F12" s="16">
+        <v>1774</v>
+      </c>
+      <c r="G12" s="16">
+        <f t="shared" si="0"/>
+        <v>3042</v>
+      </c>
+      <c r="H12" s="16">
+        <f t="shared" si="1"/>
+        <v>1.3990536277602523</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D13" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="16">
+        <v>1504</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1103</v>
+      </c>
+      <c r="G13" s="16">
+        <f t="shared" si="0"/>
+        <v>2607</v>
+      </c>
+      <c r="H13" s="16">
+        <f t="shared" si="1"/>
+        <v>0.7333776595744681</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D14" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="E11" s="17">
-        <v>1504</v>
-      </c>
-      <c r="F11" s="17">
-        <v>1103</v>
-      </c>
-      <c r="G11" s="17">
-        <f>F11/E11</f>
-        <v>0.7333776595744681</v>
-      </c>
-    </row>
-    <row r="12" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D12" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E12" s="17">
-        <v>1853</v>
-      </c>
-      <c r="F12" s="17">
-        <v>2219</v>
-      </c>
-      <c r="G12" s="17">
-        <f>F12/E12</f>
-        <v>1.197517539125742</v>
-      </c>
-    </row>
-    <row r="13" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D13" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="E13" s="17">
+      <c r="E14" s="16">
         <v>1080</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F14" s="16">
         <v>1429</v>
       </c>
-      <c r="G13" s="17">
-        <f>F13/E13</f>
+      <c r="G14" s="16">
+        <f t="shared" si="0"/>
+        <v>2509</v>
+      </c>
+      <c r="H14" s="16">
+        <f t="shared" si="1"/>
         <v>1.3231481481481482</v>
       </c>
     </row>
-    <row r="14" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D14" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="E14" s="17">
-        <v>1268</v>
-      </c>
-      <c r="F14" s="17">
-        <v>1774</v>
-      </c>
-      <c r="G14" s="17">
-        <f>F14/E14</f>
-        <v>1.3990536277602523</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="D6:G6" xr:uid="{5F526D2C-E065-4C90-873D-58A53878CC82}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D7:G18">
-      <sortCondition ref="G6"/>
+  <autoFilter ref="D6:H6" xr:uid="{5F526D2C-E065-4C90-873D-58A53878CC82}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D7:H14">
+      <sortCondition descending="1" ref="G6"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7727,10 +7846,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F14095A-411E-40CB-ABDA-253505D14A6A}">
-  <dimension ref="B2:P61"/>
+  <dimension ref="B2:P101"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36:I61"/>
+    <sheetView topLeftCell="C55" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87:F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9426,10 +9545,740 @@
         <v>9.2519224665903643E-4</v>
       </c>
     </row>
+    <row r="68" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="F68" t="s">
+        <v>58</v>
+      </c>
+      <c r="G68" t="s">
+        <v>0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>2</v>
+      </c>
+      <c r="I68" t="s">
+        <v>1</v>
+      </c>
+      <c r="J68" t="s">
+        <v>30</v>
+      </c>
+      <c r="K68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69" t="s">
+        <v>114</v>
+      </c>
+      <c r="G69" t="s">
+        <v>10</v>
+      </c>
+      <c r="H69">
+        <v>13084</v>
+      </c>
+      <c r="I69" t="s">
+        <v>5</v>
+      </c>
+      <c r="J69" t="s">
+        <v>31</v>
+      </c>
+      <c r="K69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E70">
+        <v>5</v>
+      </c>
+      <c r="F70" t="s">
+        <v>117</v>
+      </c>
+      <c r="G70" t="s">
+        <v>10</v>
+      </c>
+      <c r="H70">
+        <v>12704</v>
+      </c>
+      <c r="I70" t="s">
+        <v>5</v>
+      </c>
+      <c r="J70" t="s">
+        <v>31</v>
+      </c>
+      <c r="K70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E71">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>124</v>
+      </c>
+      <c r="G71" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71">
+        <v>7817</v>
+      </c>
+      <c r="I71" t="s">
+        <v>5</v>
+      </c>
+      <c r="J71" t="s">
+        <v>42</v>
+      </c>
+      <c r="K71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E72">
+        <v>18</v>
+      </c>
+      <c r="F72" t="s">
+        <v>130</v>
+      </c>
+      <c r="G72" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72">
+        <v>6698</v>
+      </c>
+      <c r="I72" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" t="s">
+        <v>55</v>
+      </c>
+      <c r="K72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E73">
+        <v>25</v>
+      </c>
+      <c r="F73" t="s">
+        <v>137</v>
+      </c>
+      <c r="G73" t="s">
+        <v>10</v>
+      </c>
+      <c r="H73">
+        <v>6093</v>
+      </c>
+      <c r="I73" t="s">
+        <v>5</v>
+      </c>
+      <c r="J73" t="s">
+        <v>31</v>
+      </c>
+      <c r="K73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E74">
+        <v>4</v>
+      </c>
+      <c r="F74" t="s">
+        <v>116</v>
+      </c>
+      <c r="G74" t="s">
+        <v>10</v>
+      </c>
+      <c r="H74">
+        <v>12976</v>
+      </c>
+      <c r="I74" t="s">
+        <v>22</v>
+      </c>
+      <c r="J74" t="s">
+        <v>31</v>
+      </c>
+      <c r="K74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E75">
+        <v>16</v>
+      </c>
+      <c r="F75" t="s">
+        <v>128</v>
+      </c>
+      <c r="G75" t="s">
+        <v>10</v>
+      </c>
+      <c r="H75">
+        <v>6926</v>
+      </c>
+      <c r="I75" t="s">
+        <v>22</v>
+      </c>
+      <c r="J75" t="s">
+        <v>31</v>
+      </c>
+      <c r="K75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E76">
+        <v>20</v>
+      </c>
+      <c r="F76" t="s">
+        <v>132</v>
+      </c>
+      <c r="G76" t="s">
+        <v>10</v>
+      </c>
+      <c r="H76">
+        <v>6455</v>
+      </c>
+      <c r="I76" t="s">
+        <v>22</v>
+      </c>
+      <c r="J76" t="s">
+        <v>50</v>
+      </c>
+      <c r="K76">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E77">
+        <v>41</v>
+      </c>
+      <c r="F77" t="s">
+        <v>153</v>
+      </c>
+      <c r="G77" t="s">
+        <v>10</v>
+      </c>
+      <c r="H77">
+        <v>4624</v>
+      </c>
+      <c r="I77" t="s">
+        <v>22</v>
+      </c>
+      <c r="J77" t="s">
+        <v>31</v>
+      </c>
+      <c r="K77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E78">
+        <v>62</v>
+      </c>
+      <c r="F78" t="s">
+        <v>192</v>
+      </c>
+      <c r="G78" t="s">
+        <v>10</v>
+      </c>
+      <c r="H78">
+        <v>3608</v>
+      </c>
+      <c r="I78" t="s">
+        <v>22</v>
+      </c>
+      <c r="J78" t="s">
+        <v>48</v>
+      </c>
+      <c r="K78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E79">
+        <v>33</v>
+      </c>
+      <c r="F79" t="s">
+        <v>145</v>
+      </c>
+      <c r="G79" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79">
+        <v>5249</v>
+      </c>
+      <c r="I79" t="s">
+        <v>25</v>
+      </c>
+      <c r="J79" t="s">
+        <v>31</v>
+      </c>
+      <c r="K79">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E80">
+        <v>36</v>
+      </c>
+      <c r="F80" t="s">
+        <v>148</v>
+      </c>
+      <c r="G80" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80">
+        <v>5075</v>
+      </c>
+      <c r="I80" t="s">
+        <v>25</v>
+      </c>
+      <c r="J80" t="s">
+        <v>50</v>
+      </c>
+      <c r="K80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E81">
+        <v>72</v>
+      </c>
+      <c r="F81" t="s">
+        <v>193</v>
+      </c>
+      <c r="G81" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81">
+        <v>3331</v>
+      </c>
+      <c r="I81" t="s">
+        <v>25</v>
+      </c>
+      <c r="J81" t="s">
+        <v>31</v>
+      </c>
+      <c r="K81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E82">
+        <v>100</v>
+      </c>
+      <c r="F82" t="s">
+        <v>194</v>
+      </c>
+      <c r="G82" t="s">
+        <v>10</v>
+      </c>
+      <c r="H82">
+        <v>2680</v>
+      </c>
+      <c r="I82" t="s">
+        <v>25</v>
+      </c>
+      <c r="J82" t="s">
+        <v>44</v>
+      </c>
+      <c r="K82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E83">
+        <v>144</v>
+      </c>
+      <c r="F83" t="s">
+        <v>195</v>
+      </c>
+      <c r="G83" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83">
+        <v>1867</v>
+      </c>
+      <c r="I83" t="s">
+        <v>25</v>
+      </c>
+      <c r="J83" t="s">
+        <v>35</v>
+      </c>
+      <c r="K83">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="F86" t="s">
+        <v>58</v>
+      </c>
+      <c r="G86" t="s">
+        <v>0</v>
+      </c>
+      <c r="H86" t="s">
+        <v>2</v>
+      </c>
+      <c r="I86" t="s">
+        <v>1</v>
+      </c>
+      <c r="J86" t="s">
+        <v>30</v>
+      </c>
+      <c r="K86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E87">
+        <v>17365</v>
+      </c>
+      <c r="F87" t="s">
+        <v>64</v>
+      </c>
+      <c r="G87" t="s">
+        <v>4</v>
+      </c>
+      <c r="H87">
+        <v>12250</v>
+      </c>
+      <c r="I87" t="s">
+        <v>14</v>
+      </c>
+      <c r="J87" t="s">
+        <v>49</v>
+      </c>
+      <c r="K87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E88">
+        <v>17374</v>
+      </c>
+      <c r="F88" t="s">
+        <v>73</v>
+      </c>
+      <c r="G88" t="s">
+        <v>4</v>
+      </c>
+      <c r="H88">
+        <v>9196</v>
+      </c>
+      <c r="I88" t="s">
+        <v>14</v>
+      </c>
+      <c r="J88" t="s">
+        <v>32</v>
+      </c>
+      <c r="K88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E89">
+        <v>17376</v>
+      </c>
+      <c r="F89" t="s">
+        <v>75</v>
+      </c>
+      <c r="G89" t="s">
+        <v>4</v>
+      </c>
+      <c r="H89">
+        <v>9051</v>
+      </c>
+      <c r="I89" t="s">
+        <v>14</v>
+      </c>
+      <c r="J89" t="s">
+        <v>44</v>
+      </c>
+      <c r="K89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E90">
+        <v>17380</v>
+      </c>
+      <c r="F90" t="s">
+        <v>79</v>
+      </c>
+      <c r="G90" t="s">
+        <v>4</v>
+      </c>
+      <c r="H90">
+        <v>8876</v>
+      </c>
+      <c r="I90" t="s">
+        <v>14</v>
+      </c>
+      <c r="J90" t="s">
+        <v>41</v>
+      </c>
+      <c r="K90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E91">
+        <v>17385</v>
+      </c>
+      <c r="F91" t="s">
+        <v>84</v>
+      </c>
+      <c r="G91" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91">
+        <v>8349</v>
+      </c>
+      <c r="I91" t="s">
+        <v>14</v>
+      </c>
+      <c r="J91" t="s">
+        <v>38</v>
+      </c>
+      <c r="K91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E92">
+        <v>17821</v>
+      </c>
+      <c r="F92" t="s">
+        <v>199</v>
+      </c>
+      <c r="G92" t="s">
+        <v>4</v>
+      </c>
+      <c r="H92">
+        <v>635</v>
+      </c>
+      <c r="I92" t="s">
+        <v>24</v>
+      </c>
+      <c r="J92" t="s">
+        <v>42</v>
+      </c>
+      <c r="K92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E93">
+        <v>17995</v>
+      </c>
+      <c r="F93" t="s">
+        <v>200</v>
+      </c>
+      <c r="G93" t="s">
+        <v>4</v>
+      </c>
+      <c r="H93">
+        <v>417</v>
+      </c>
+      <c r="I93" t="s">
+        <v>24</v>
+      </c>
+      <c r="J93" t="s">
+        <v>38</v>
+      </c>
+      <c r="K93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E94">
+        <v>18234</v>
+      </c>
+      <c r="F94" t="s">
+        <v>201</v>
+      </c>
+      <c r="G94" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94">
+        <v>256</v>
+      </c>
+      <c r="I94" t="s">
+        <v>24</v>
+      </c>
+      <c r="J94" t="s">
+        <v>49</v>
+      </c>
+      <c r="K94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E95">
+        <v>18414</v>
+      </c>
+      <c r="F95" t="s">
+        <v>202</v>
+      </c>
+      <c r="G95" t="s">
+        <v>4</v>
+      </c>
+      <c r="H95">
+        <v>188</v>
+      </c>
+      <c r="I95" t="s">
+        <v>24</v>
+      </c>
+      <c r="J95" t="s">
+        <v>49</v>
+      </c>
+      <c r="K95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E96">
+        <v>18966</v>
+      </c>
+      <c r="F96" t="s">
+        <v>203</v>
+      </c>
+      <c r="G96" t="s">
+        <v>4</v>
+      </c>
+      <c r="H96">
+        <v>100</v>
+      </c>
+      <c r="I96" t="s">
+        <v>24</v>
+      </c>
+      <c r="J96" t="s">
+        <v>48</v>
+      </c>
+      <c r="K96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E97">
+        <v>17364</v>
+      </c>
+      <c r="F97" t="s">
+        <v>63</v>
+      </c>
+      <c r="G97" t="s">
+        <v>4</v>
+      </c>
+      <c r="H97">
+        <v>12541</v>
+      </c>
+      <c r="I97" t="s">
+        <v>26</v>
+      </c>
+      <c r="J97" t="s">
+        <v>43</v>
+      </c>
+      <c r="K97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E98">
+        <v>17388</v>
+      </c>
+      <c r="F98" t="s">
+        <v>87</v>
+      </c>
+      <c r="G98" t="s">
+        <v>4</v>
+      </c>
+      <c r="H98">
+        <v>8135</v>
+      </c>
+      <c r="I98" t="s">
+        <v>26</v>
+      </c>
+      <c r="J98" t="s">
+        <v>50</v>
+      </c>
+      <c r="K98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E99">
+        <v>17457</v>
+      </c>
+      <c r="F99" t="s">
+        <v>196</v>
+      </c>
+      <c r="G99" t="s">
+        <v>4</v>
+      </c>
+      <c r="H99">
+        <v>3668</v>
+      </c>
+      <c r="I99" t="s">
+        <v>26</v>
+      </c>
+      <c r="J99" t="s">
+        <v>55</v>
+      </c>
+      <c r="K99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E100">
+        <v>17462</v>
+      </c>
+      <c r="F100" t="s">
+        <v>197</v>
+      </c>
+      <c r="G100" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100">
+        <v>3549</v>
+      </c>
+      <c r="I100" t="s">
+        <v>26</v>
+      </c>
+      <c r="J100" t="s">
+        <v>44</v>
+      </c>
+      <c r="K100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E101">
+        <v>17463</v>
+      </c>
+      <c r="F101" t="s">
+        <v>198</v>
+      </c>
+      <c r="G101" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101">
+        <v>3406</v>
+      </c>
+      <c r="I101" t="s">
+        <v>26</v>
+      </c>
+      <c r="J101" t="s">
+        <v>44</v>
+      </c>
+      <c r="K101">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="H35:I35" xr:uid="{5911E7A6-B21D-4D2D-A0CA-3F84354A2FF8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H36:I61">
-      <sortCondition descending="1" ref="I35"/>
+  <autoFilter ref="E86:K86" xr:uid="{B49FDBC9-EF05-4E05-99CB-D53CEBDAC800}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E87:K101">
+      <sortCondition ref="I86"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9439,10 +10288,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4E5BF9-6A70-4F43-966C-57F4ECF61A92}">
-  <dimension ref="B2:P61"/>
+  <dimension ref="B2:P137"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36:C38"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="T123" sqref="T123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10976,10 +11825,1450 @@
         <v>4.253094125976648E-5</v>
       </c>
     </row>
+    <row r="70" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="G70" t="s">
+        <v>58</v>
+      </c>
+      <c r="H70" t="s">
+        <v>0</v>
+      </c>
+      <c r="I70" t="s">
+        <v>2</v>
+      </c>
+      <c r="J70" t="s">
+        <v>1</v>
+      </c>
+      <c r="K70" t="s">
+        <v>30</v>
+      </c>
+      <c r="L70" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71" t="s">
+        <v>112</v>
+      </c>
+      <c r="H71" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71">
+        <v>17535</v>
+      </c>
+      <c r="J71" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" t="s">
+        <v>31</v>
+      </c>
+      <c r="L71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>113</v>
+      </c>
+      <c r="H72" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72">
+        <v>15581</v>
+      </c>
+      <c r="J72" t="s">
+        <v>9</v>
+      </c>
+      <c r="K72" t="s">
+        <v>31</v>
+      </c>
+      <c r="L72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73" t="s">
+        <v>114</v>
+      </c>
+      <c r="H73" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73">
+        <v>13084</v>
+      </c>
+      <c r="J73" t="s">
+        <v>5</v>
+      </c>
+      <c r="K73" t="s">
+        <v>31</v>
+      </c>
+      <c r="L73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F74">
+        <v>4</v>
+      </c>
+      <c r="G74" t="s">
+        <v>116</v>
+      </c>
+      <c r="H74" t="s">
+        <v>10</v>
+      </c>
+      <c r="I74">
+        <v>12976</v>
+      </c>
+      <c r="J74" t="s">
+        <v>22</v>
+      </c>
+      <c r="K74" t="s">
+        <v>31</v>
+      </c>
+      <c r="L74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F75">
+        <v>5</v>
+      </c>
+      <c r="G75" t="s">
+        <v>117</v>
+      </c>
+      <c r="H75" t="s">
+        <v>10</v>
+      </c>
+      <c r="I75">
+        <v>12704</v>
+      </c>
+      <c r="J75" t="s">
+        <v>5</v>
+      </c>
+      <c r="K75" t="s">
+        <v>31</v>
+      </c>
+      <c r="L75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76" t="s">
+        <v>115</v>
+      </c>
+      <c r="H76" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76">
+        <v>13003</v>
+      </c>
+      <c r="J76" t="s">
+        <v>7</v>
+      </c>
+      <c r="K76" t="s">
+        <v>35</v>
+      </c>
+      <c r="L76">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F77">
+        <v>24</v>
+      </c>
+      <c r="G77" t="s">
+        <v>136</v>
+      </c>
+      <c r="H77" t="s">
+        <v>10</v>
+      </c>
+      <c r="I77">
+        <v>6099</v>
+      </c>
+      <c r="J77" t="s">
+        <v>19</v>
+      </c>
+      <c r="K77" t="s">
+        <v>35</v>
+      </c>
+      <c r="L77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F78">
+        <v>26</v>
+      </c>
+      <c r="G78" t="s">
+        <v>138</v>
+      </c>
+      <c r="H78" t="s">
+        <v>10</v>
+      </c>
+      <c r="I78">
+        <v>6093</v>
+      </c>
+      <c r="J78" t="s">
+        <v>7</v>
+      </c>
+      <c r="K78" t="s">
+        <v>35</v>
+      </c>
+      <c r="L78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F79">
+        <v>27</v>
+      </c>
+      <c r="G79" t="s">
+        <v>139</v>
+      </c>
+      <c r="H79" t="s">
+        <v>10</v>
+      </c>
+      <c r="I79">
+        <v>5569</v>
+      </c>
+      <c r="J79" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" t="s">
+        <v>35</v>
+      </c>
+      <c r="L79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F80">
+        <v>28</v>
+      </c>
+      <c r="G80" t="s">
+        <v>140</v>
+      </c>
+      <c r="H80" t="s">
+        <v>10</v>
+      </c>
+      <c r="I80">
+        <v>5562</v>
+      </c>
+      <c r="J80" t="s">
+        <v>9</v>
+      </c>
+      <c r="K80" t="s">
+        <v>35</v>
+      </c>
+      <c r="L80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F81">
+        <v>15</v>
+      </c>
+      <c r="G81" t="s">
+        <v>127</v>
+      </c>
+      <c r="H81" t="s">
+        <v>10</v>
+      </c>
+      <c r="I81">
+        <v>7216</v>
+      </c>
+      <c r="J81" t="s">
+        <v>9</v>
+      </c>
+      <c r="K81" t="s">
+        <v>38</v>
+      </c>
+      <c r="L81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F82">
+        <v>38</v>
+      </c>
+      <c r="G82" t="s">
+        <v>150</v>
+      </c>
+      <c r="H82" t="s">
+        <v>10</v>
+      </c>
+      <c r="I82">
+        <v>4910</v>
+      </c>
+      <c r="J82" t="s">
+        <v>12</v>
+      </c>
+      <c r="K82" t="s">
+        <v>38</v>
+      </c>
+      <c r="L82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F83">
+        <v>44</v>
+      </c>
+      <c r="G83" t="s">
+        <v>156</v>
+      </c>
+      <c r="H83" t="s">
+        <v>10</v>
+      </c>
+      <c r="I83">
+        <v>4482</v>
+      </c>
+      <c r="J83" t="s">
+        <v>16</v>
+      </c>
+      <c r="K83" t="s">
+        <v>38</v>
+      </c>
+      <c r="L83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F84">
+        <v>64</v>
+      </c>
+      <c r="G84" t="s">
+        <v>187</v>
+      </c>
+      <c r="H84" t="s">
+        <v>10</v>
+      </c>
+      <c r="I84">
+        <v>3550</v>
+      </c>
+      <c r="J84" t="s">
+        <v>5</v>
+      </c>
+      <c r="K84" t="s">
+        <v>38</v>
+      </c>
+      <c r="L84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F85">
+        <v>66</v>
+      </c>
+      <c r="G85" t="s">
+        <v>188</v>
+      </c>
+      <c r="H85" t="s">
+        <v>10</v>
+      </c>
+      <c r="I85">
+        <v>3515</v>
+      </c>
+      <c r="J85" t="s">
+        <v>22</v>
+      </c>
+      <c r="K85" t="s">
+        <v>38</v>
+      </c>
+      <c r="L85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F86">
+        <v>51</v>
+      </c>
+      <c r="G86" t="s">
+        <v>174</v>
+      </c>
+      <c r="H86" t="s">
+        <v>10</v>
+      </c>
+      <c r="I86">
+        <v>4066</v>
+      </c>
+      <c r="J86" t="s">
+        <v>17</v>
+      </c>
+      <c r="K86" t="s">
+        <v>39</v>
+      </c>
+      <c r="L86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F87">
+        <v>91</v>
+      </c>
+      <c r="G87" t="s">
+        <v>175</v>
+      </c>
+      <c r="H87" t="s">
+        <v>10</v>
+      </c>
+      <c r="I87">
+        <v>2860</v>
+      </c>
+      <c r="J87" t="s">
+        <v>16</v>
+      </c>
+      <c r="K87" t="s">
+        <v>39</v>
+      </c>
+      <c r="L87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F88">
+        <v>124</v>
+      </c>
+      <c r="G88" t="s">
+        <v>189</v>
+      </c>
+      <c r="H88" t="s">
+        <v>10</v>
+      </c>
+      <c r="I88">
+        <v>2185</v>
+      </c>
+      <c r="J88" t="s">
+        <v>21</v>
+      </c>
+      <c r="K88" t="s">
+        <v>39</v>
+      </c>
+      <c r="L88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F89">
+        <v>167</v>
+      </c>
+      <c r="G89" t="s">
+        <v>190</v>
+      </c>
+      <c r="H89" t="s">
+        <v>10</v>
+      </c>
+      <c r="I89">
+        <v>1694</v>
+      </c>
+      <c r="J89" t="s">
+        <v>15</v>
+      </c>
+      <c r="K89" t="s">
+        <v>39</v>
+      </c>
+      <c r="L89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F90">
+        <v>220</v>
+      </c>
+      <c r="G90" t="s">
+        <v>191</v>
+      </c>
+      <c r="H90" t="s">
+        <v>10</v>
+      </c>
+      <c r="I90">
+        <v>1303</v>
+      </c>
+      <c r="J90" t="s">
+        <v>5</v>
+      </c>
+      <c r="K90" t="s">
+        <v>39</v>
+      </c>
+      <c r="L90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F91">
+        <v>8</v>
+      </c>
+      <c r="G91" t="s">
+        <v>120</v>
+      </c>
+      <c r="H91" t="s">
+        <v>10</v>
+      </c>
+      <c r="I91">
+        <v>9445</v>
+      </c>
+      <c r="J91" t="s">
+        <v>9</v>
+      </c>
+      <c r="K91" t="s">
+        <v>44</v>
+      </c>
+      <c r="L91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F92">
+        <v>22</v>
+      </c>
+      <c r="G92" t="s">
+        <v>134</v>
+      </c>
+      <c r="H92" t="s">
+        <v>10</v>
+      </c>
+      <c r="I92">
+        <v>6196</v>
+      </c>
+      <c r="J92" t="s">
+        <v>4</v>
+      </c>
+      <c r="K92" t="s">
+        <v>44</v>
+      </c>
+      <c r="L92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F93">
+        <v>45</v>
+      </c>
+      <c r="G93" t="s">
+        <v>157</v>
+      </c>
+      <c r="H93" t="s">
+        <v>10</v>
+      </c>
+      <c r="I93">
+        <v>4468</v>
+      </c>
+      <c r="J93" t="s">
+        <v>16</v>
+      </c>
+      <c r="K93" t="s">
+        <v>44</v>
+      </c>
+      <c r="L93">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F94">
+        <v>46</v>
+      </c>
+      <c r="G94" t="s">
+        <v>158</v>
+      </c>
+      <c r="H94" t="s">
+        <v>10</v>
+      </c>
+      <c r="I94">
+        <v>4467</v>
+      </c>
+      <c r="J94" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" t="s">
+        <v>44</v>
+      </c>
+      <c r="L94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F95">
+        <v>53</v>
+      </c>
+      <c r="G95" t="s">
+        <v>186</v>
+      </c>
+      <c r="H95" t="s">
+        <v>10</v>
+      </c>
+      <c r="I95">
+        <v>3989</v>
+      </c>
+      <c r="J95" t="s">
+        <v>6</v>
+      </c>
+      <c r="K95" t="s">
+        <v>44</v>
+      </c>
+      <c r="L95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F96">
+        <v>17</v>
+      </c>
+      <c r="G96" t="s">
+        <v>129</v>
+      </c>
+      <c r="H96" t="s">
+        <v>10</v>
+      </c>
+      <c r="I96">
+        <v>6856</v>
+      </c>
+      <c r="J96" t="s">
+        <v>9</v>
+      </c>
+      <c r="K96" t="s">
+        <v>55</v>
+      </c>
+      <c r="L96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F97">
+        <v>18</v>
+      </c>
+      <c r="G97" t="s">
+        <v>130</v>
+      </c>
+      <c r="H97" t="s">
+        <v>10</v>
+      </c>
+      <c r="I97">
+        <v>6698</v>
+      </c>
+      <c r="J97" t="s">
+        <v>5</v>
+      </c>
+      <c r="K97" t="s">
+        <v>55</v>
+      </c>
+      <c r="L97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F98">
+        <v>31</v>
+      </c>
+      <c r="G98" t="s">
+        <v>143</v>
+      </c>
+      <c r="H98" t="s">
+        <v>10</v>
+      </c>
+      <c r="I98">
+        <v>5331</v>
+      </c>
+      <c r="J98" t="s">
+        <v>29</v>
+      </c>
+      <c r="K98" t="s">
+        <v>55</v>
+      </c>
+      <c r="L98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F99">
+        <v>32</v>
+      </c>
+      <c r="G99" t="s">
+        <v>144</v>
+      </c>
+      <c r="H99" t="s">
+        <v>10</v>
+      </c>
+      <c r="I99">
+        <v>5309</v>
+      </c>
+      <c r="J99" t="s">
+        <v>21</v>
+      </c>
+      <c r="K99" t="s">
+        <v>55</v>
+      </c>
+      <c r="L99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F100">
+        <v>34</v>
+      </c>
+      <c r="G100" t="s">
+        <v>146</v>
+      </c>
+      <c r="H100" t="s">
+        <v>10</v>
+      </c>
+      <c r="I100">
+        <v>5195</v>
+      </c>
+      <c r="J100" t="s">
+        <v>16</v>
+      </c>
+      <c r="K100" t="s">
+        <v>55</v>
+      </c>
+      <c r="L100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="G104" t="s">
+        <v>58</v>
+      </c>
+      <c r="H104" t="s">
+        <v>0</v>
+      </c>
+      <c r="I104" t="s">
+        <v>2</v>
+      </c>
+      <c r="J104" t="s">
+        <v>1</v>
+      </c>
+      <c r="K104" t="s">
+        <v>30</v>
+      </c>
+      <c r="L104" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F105">
+        <v>17366</v>
+      </c>
+      <c r="G105" t="s">
+        <v>65</v>
+      </c>
+      <c r="H105" t="s">
+        <v>4</v>
+      </c>
+      <c r="I105">
+        <v>12136</v>
+      </c>
+      <c r="J105" t="s">
+        <v>6</v>
+      </c>
+      <c r="K105" t="s">
+        <v>44</v>
+      </c>
+      <c r="L105">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F106">
+        <v>17370</v>
+      </c>
+      <c r="G106" t="s">
+        <v>69</v>
+      </c>
+      <c r="H106" t="s">
+        <v>4</v>
+      </c>
+      <c r="I106">
+        <v>10029</v>
+      </c>
+      <c r="J106" t="s">
+        <v>4</v>
+      </c>
+      <c r="K106" t="s">
+        <v>44</v>
+      </c>
+      <c r="L106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F107">
+        <v>17372</v>
+      </c>
+      <c r="G107" t="s">
+        <v>71</v>
+      </c>
+      <c r="H107" t="s">
+        <v>4</v>
+      </c>
+      <c r="I107">
+        <v>9464</v>
+      </c>
+      <c r="J107" t="s">
+        <v>9</v>
+      </c>
+      <c r="K107" t="s">
+        <v>44</v>
+      </c>
+      <c r="L107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F108">
+        <v>17375</v>
+      </c>
+      <c r="G108" t="s">
+        <v>74</v>
+      </c>
+      <c r="H108" t="s">
+        <v>4</v>
+      </c>
+      <c r="I108">
+        <v>9086</v>
+      </c>
+      <c r="J108" t="s">
+        <v>16</v>
+      </c>
+      <c r="K108" t="s">
+        <v>44</v>
+      </c>
+      <c r="L108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F109">
+        <v>17376</v>
+      </c>
+      <c r="G109" t="s">
+        <v>75</v>
+      </c>
+      <c r="H109" t="s">
+        <v>4</v>
+      </c>
+      <c r="I109">
+        <v>9051</v>
+      </c>
+      <c r="J109" t="s">
+        <v>14</v>
+      </c>
+      <c r="K109" t="s">
+        <v>44</v>
+      </c>
+      <c r="L109">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F110">
+        <v>17362</v>
+      </c>
+      <c r="G110" t="s">
+        <v>61</v>
+      </c>
+      <c r="H110" t="s">
+        <v>4</v>
+      </c>
+      <c r="I110">
+        <v>14147</v>
+      </c>
+      <c r="J110" t="s">
+        <v>18</v>
+      </c>
+      <c r="K110" t="s">
+        <v>48</v>
+      </c>
+      <c r="L110">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F111">
+        <v>17369</v>
+      </c>
+      <c r="G111" t="s">
+        <v>68</v>
+      </c>
+      <c r="H111" t="s">
+        <v>4</v>
+      </c>
+      <c r="I111">
+        <v>10151</v>
+      </c>
+      <c r="J111" t="s">
+        <v>5</v>
+      </c>
+      <c r="K111" t="s">
+        <v>48</v>
+      </c>
+      <c r="L111">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F112">
+        <v>17391</v>
+      </c>
+      <c r="G112" t="s">
+        <v>90</v>
+      </c>
+      <c r="H112" t="s">
+        <v>4</v>
+      </c>
+      <c r="I112">
+        <v>7606</v>
+      </c>
+      <c r="J112" t="s">
+        <v>5</v>
+      </c>
+      <c r="K112" t="s">
+        <v>48</v>
+      </c>
+      <c r="L112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F113">
+        <v>17392</v>
+      </c>
+      <c r="G113" t="s">
+        <v>91</v>
+      </c>
+      <c r="H113" t="s">
+        <v>4</v>
+      </c>
+      <c r="I113">
+        <v>7511</v>
+      </c>
+      <c r="J113" t="s">
+        <v>7</v>
+      </c>
+      <c r="K113" t="s">
+        <v>48</v>
+      </c>
+      <c r="L113">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F114">
+        <v>17406</v>
+      </c>
+      <c r="G114" t="s">
+        <v>105</v>
+      </c>
+      <c r="H114" t="s">
+        <v>4</v>
+      </c>
+      <c r="I114">
+        <v>6143</v>
+      </c>
+      <c r="J114" t="s">
+        <v>7</v>
+      </c>
+      <c r="K114" t="s">
+        <v>48</v>
+      </c>
+      <c r="L114">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F115">
+        <v>17365</v>
+      </c>
+      <c r="G115" t="s">
+        <v>64</v>
+      </c>
+      <c r="H115" t="s">
+        <v>4</v>
+      </c>
+      <c r="I115">
+        <v>12250</v>
+      </c>
+      <c r="J115" t="s">
+        <v>14</v>
+      </c>
+      <c r="K115" t="s">
+        <v>49</v>
+      </c>
+      <c r="L115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F116">
+        <v>17367</v>
+      </c>
+      <c r="G116" t="s">
+        <v>66</v>
+      </c>
+      <c r="H116" t="s">
+        <v>4</v>
+      </c>
+      <c r="I116">
+        <v>11281</v>
+      </c>
+      <c r="J116" t="s">
+        <v>16</v>
+      </c>
+      <c r="K116" t="s">
+        <v>49</v>
+      </c>
+      <c r="L116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F117">
+        <v>17404</v>
+      </c>
+      <c r="G117" t="s">
+        <v>103</v>
+      </c>
+      <c r="H117" t="s">
+        <v>4</v>
+      </c>
+      <c r="I117">
+        <v>6386</v>
+      </c>
+      <c r="J117" t="s">
+        <v>23</v>
+      </c>
+      <c r="K117" t="s">
+        <v>49</v>
+      </c>
+      <c r="L117">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F118">
+        <v>17405</v>
+      </c>
+      <c r="G118" t="s">
+        <v>104</v>
+      </c>
+      <c r="H118" t="s">
+        <v>4</v>
+      </c>
+      <c r="I118">
+        <v>6186</v>
+      </c>
+      <c r="J118" t="s">
+        <v>7</v>
+      </c>
+      <c r="K118" t="s">
+        <v>49</v>
+      </c>
+      <c r="L118">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F119">
+        <v>17412</v>
+      </c>
+      <c r="G119" t="s">
+        <v>204</v>
+      </c>
+      <c r="H119" t="s">
+        <v>4</v>
+      </c>
+      <c r="I119">
+        <v>5924</v>
+      </c>
+      <c r="J119" t="s">
+        <v>9</v>
+      </c>
+      <c r="K119" t="s">
+        <v>49</v>
+      </c>
+      <c r="L119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="G122" t="s">
+        <v>58</v>
+      </c>
+      <c r="H122" t="s">
+        <v>0</v>
+      </c>
+      <c r="I122" t="s">
+        <v>2</v>
+      </c>
+      <c r="J122" t="s">
+        <v>1</v>
+      </c>
+      <c r="K122" t="s">
+        <v>30</v>
+      </c>
+      <c r="L122" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F123">
+        <v>17403</v>
+      </c>
+      <c r="G123" t="s">
+        <v>102</v>
+      </c>
+      <c r="H123" t="s">
+        <v>4</v>
+      </c>
+      <c r="I123">
+        <v>6745</v>
+      </c>
+      <c r="J123" t="s">
+        <v>9</v>
+      </c>
+      <c r="K123" t="s">
+        <v>31</v>
+      </c>
+      <c r="L123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F124">
+        <v>17413</v>
+      </c>
+      <c r="G124" t="s">
+        <v>205</v>
+      </c>
+      <c r="H124" t="s">
+        <v>4</v>
+      </c>
+      <c r="I124">
+        <v>5924</v>
+      </c>
+      <c r="J124" t="s">
+        <v>14</v>
+      </c>
+      <c r="K124" t="s">
+        <v>31</v>
+      </c>
+      <c r="L124">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F125">
+        <v>17426</v>
+      </c>
+      <c r="G125" t="s">
+        <v>206</v>
+      </c>
+      <c r="H125" t="s">
+        <v>4</v>
+      </c>
+      <c r="I125">
+        <v>4785</v>
+      </c>
+      <c r="J125" t="s">
+        <v>16</v>
+      </c>
+      <c r="K125" t="s">
+        <v>31</v>
+      </c>
+      <c r="L125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F126">
+        <v>17522</v>
+      </c>
+      <c r="G126" t="s">
+        <v>212</v>
+      </c>
+      <c r="H126" t="s">
+        <v>4</v>
+      </c>
+      <c r="I126">
+        <v>2319</v>
+      </c>
+      <c r="J126" t="s">
+        <v>16</v>
+      </c>
+      <c r="K126" t="s">
+        <v>31</v>
+      </c>
+      <c r="L126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F127">
+        <v>17707</v>
+      </c>
+      <c r="G127" t="s">
+        <v>213</v>
+      </c>
+      <c r="H127" t="s">
+        <v>4</v>
+      </c>
+      <c r="I127">
+        <v>905</v>
+      </c>
+      <c r="J127" t="s">
+        <v>8</v>
+      </c>
+      <c r="K127" t="s">
+        <v>31</v>
+      </c>
+      <c r="L127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F128">
+        <v>17382</v>
+      </c>
+      <c r="G128" t="s">
+        <v>81</v>
+      </c>
+      <c r="H128" t="s">
+        <v>4</v>
+      </c>
+      <c r="I128">
+        <v>8558</v>
+      </c>
+      <c r="J128" t="s">
+        <v>23</v>
+      </c>
+      <c r="K128" t="s">
+        <v>35</v>
+      </c>
+      <c r="L128">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F129">
+        <v>17390</v>
+      </c>
+      <c r="G129" t="s">
+        <v>89</v>
+      </c>
+      <c r="H129" t="s">
+        <v>4</v>
+      </c>
+      <c r="I129">
+        <v>7734</v>
+      </c>
+      <c r="J129" t="s">
+        <v>16</v>
+      </c>
+      <c r="K129" t="s">
+        <v>35</v>
+      </c>
+      <c r="L129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F130">
+        <v>17453</v>
+      </c>
+      <c r="G130" t="s">
+        <v>207</v>
+      </c>
+      <c r="H130" t="s">
+        <v>4</v>
+      </c>
+      <c r="I130">
+        <v>3809</v>
+      </c>
+      <c r="J130" t="s">
+        <v>14</v>
+      </c>
+      <c r="K130" t="s">
+        <v>35</v>
+      </c>
+      <c r="L130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F131">
+        <v>17456</v>
+      </c>
+      <c r="G131" t="s">
+        <v>208</v>
+      </c>
+      <c r="H131" t="s">
+        <v>4</v>
+      </c>
+      <c r="I131">
+        <v>3745</v>
+      </c>
+      <c r="J131" t="s">
+        <v>14</v>
+      </c>
+      <c r="K131" t="s">
+        <v>35</v>
+      </c>
+      <c r="L131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F132">
+        <v>17482</v>
+      </c>
+      <c r="G132" t="s">
+        <v>209</v>
+      </c>
+      <c r="H132" t="s">
+        <v>4</v>
+      </c>
+      <c r="I132">
+        <v>2960</v>
+      </c>
+      <c r="J132" t="s">
+        <v>7</v>
+      </c>
+      <c r="K132" t="s">
+        <v>35</v>
+      </c>
+      <c r="L132">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F133">
+        <v>17368</v>
+      </c>
+      <c r="G133" t="s">
+        <v>67</v>
+      </c>
+      <c r="H133" t="s">
+        <v>4</v>
+      </c>
+      <c r="I133">
+        <v>10705</v>
+      </c>
+      <c r="J133" t="s">
+        <v>12</v>
+      </c>
+      <c r="K133" t="s">
+        <v>55</v>
+      </c>
+      <c r="L133">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F134">
+        <v>17400</v>
+      </c>
+      <c r="G134" t="s">
+        <v>99</v>
+      </c>
+      <c r="H134" t="s">
+        <v>4</v>
+      </c>
+      <c r="I134">
+        <v>6966</v>
+      </c>
+      <c r="J134" t="s">
+        <v>5</v>
+      </c>
+      <c r="K134" t="s">
+        <v>55</v>
+      </c>
+      <c r="L134">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F135">
+        <v>17457</v>
+      </c>
+      <c r="G135" t="s">
+        <v>196</v>
+      </c>
+      <c r="H135" t="s">
+        <v>4</v>
+      </c>
+      <c r="I135">
+        <v>3668</v>
+      </c>
+      <c r="J135" t="s">
+        <v>26</v>
+      </c>
+      <c r="K135" t="s">
+        <v>55</v>
+      </c>
+      <c r="L135">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F136">
+        <v>17494</v>
+      </c>
+      <c r="G136" t="s">
+        <v>210</v>
+      </c>
+      <c r="H136" t="s">
+        <v>4</v>
+      </c>
+      <c r="I136">
+        <v>2698</v>
+      </c>
+      <c r="J136" t="s">
+        <v>29</v>
+      </c>
+      <c r="K136" t="s">
+        <v>55</v>
+      </c>
+      <c r="L136">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F137">
+        <v>17501</v>
+      </c>
+      <c r="G137" t="s">
+        <v>211</v>
+      </c>
+      <c r="H137" t="s">
+        <v>4</v>
+      </c>
+      <c r="I137">
+        <v>2555</v>
+      </c>
+      <c r="J137" t="s">
+        <v>6</v>
+      </c>
+      <c r="K137" t="s">
+        <v>55</v>
+      </c>
+      <c r="L137">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="E35:F35" xr:uid="{78012814-E80D-4F0F-B7DC-758B8A4D861B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E36:F61">
-      <sortCondition descending="1" ref="F35"/>
+  <autoFilter ref="F122:L122" xr:uid="{905DF435-7784-4FF1-ADE6-C31ACCBEAE5D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F123:L137">
+      <sortCondition ref="K122"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
